--- a/Team-Data/2012-13/3-19-2012-13.xlsx
+++ b/Team-Data/2012-13/3-19-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -756,7 +823,7 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -804,7 +871,7 @@
         <v>16</v>
       </c>
       <c r="AX2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>6</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>0.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>12</v>
@@ -956,10 +1023,10 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -977,10 +1044,10 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW3" t="n">
         <v>8</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>1.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>8</v>
@@ -1120,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -1138,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-9.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1484,7 +1551,7 @@
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
@@ -1523,10 +1590,10 @@
         <v>6</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW6" t="n">
         <v>19</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
@@ -1705,7 +1772,7 @@
         <v>25</v>
       </c>
       <c r="AU7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV7" t="n">
         <v>6</v>
@@ -1720,7 +1787,7 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
@@ -1869,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
@@ -1887,7 +1954,7 @@
         <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" t="n">
         <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>0.681</v>
+        <v>0.676</v>
       </c>
       <c r="H9" t="n">
         <v>48.6</v>
@@ -1958,28 +2025,28 @@
         <v>40.8</v>
       </c>
       <c r="J9" t="n">
-        <v>85.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="K9" t="n">
         <v>0.478</v>
       </c>
       <c r="L9" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M9" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.342</v>
+        <v>0.344</v>
       </c>
       <c r="O9" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P9" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.695</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="R9" t="n">
         <v>13.4</v>
@@ -1988,7 +2055,7 @@
         <v>31.8</v>
       </c>
       <c r="T9" t="n">
-        <v>45.2</v>
+        <v>45.1</v>
       </c>
       <c r="U9" t="n">
         <v>24.4</v>
@@ -2009,25 +2076,25 @@
         <v>20.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="AC9" t="n">
         <v>4.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>4</v>
       </c>
       <c r="AF9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH9" t="n">
         <v>5</v>
@@ -2078,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF10" t="n">
         <v>27</v>
@@ -2221,7 +2288,7 @@
         <v>20</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" t="n">
         <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>0.618</v>
+        <v>0.612</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2686,10 +2753,10 @@
         <v>35.1</v>
       </c>
       <c r="J13" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L13" t="n">
         <v>7.1</v>
@@ -2698,34 +2765,34 @@
         <v>19.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="O13" t="n">
         <v>17.1</v>
       </c>
       <c r="P13" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.749</v>
+        <v>0.747</v>
       </c>
       <c r="R13" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S13" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="T13" t="n">
-        <v>46.2</v>
+        <v>45.9</v>
       </c>
       <c r="U13" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V13" t="n">
         <v>15.1</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X13" t="n">
         <v>6.6</v>
@@ -2743,10 +2810,10 @@
         <v>94.40000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2767,16 +2834,16 @@
         <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
         <v>15</v>
       </c>
       <c r="AM13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO13" t="n">
         <v>14</v>
@@ -2791,7 +2858,7 @@
         <v>3</v>
       </c>
       <c r="AS13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -2806,7 +2873,7 @@
         <v>25</v>
       </c>
       <c r="AX13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY13" t="n">
         <v>21</v>
@@ -2818,7 +2885,7 @@
         <v>4</v>
       </c>
       <c r="BB13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" t="n">
         <v>46</v>
       </c>
       <c r="F14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" t="n">
-        <v>0.676</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2871,7 +2938,7 @@
         <v>80.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L14" t="n">
         <v>7.5</v>
@@ -2883,13 +2950,13 @@
         <v>0.356</v>
       </c>
       <c r="O14" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P14" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.706</v>
+        <v>0.705</v>
       </c>
       <c r="R14" t="n">
         <v>11.4</v>
@@ -2898,19 +2965,19 @@
         <v>30.1</v>
       </c>
       <c r="T14" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U14" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V14" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W14" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y14" t="n">
         <v>4.2</v>
@@ -2919,25 +2986,25 @@
         <v>20.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB14" t="n">
         <v>100.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="n">
         <v>30</v>
@@ -2952,7 +3019,7 @@
         <v>5</v>
       </c>
       <c r="AL14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
@@ -2961,7 +3028,7 @@
         <v>20</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
@@ -2973,7 +3040,7 @@
         <v>15</v>
       </c>
       <c r="AS14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT14" t="n">
         <v>19</v>
@@ -2991,7 +3058,7 @@
         <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ14" t="n">
         <v>23</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO15" t="n">
         <v>4</v>
@@ -3155,7 +3222,7 @@
         <v>14</v>
       </c>
       <c r="AS15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
         <v>4</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>4.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>6</v>
@@ -3301,7 +3368,7 @@
         <v>4</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH16" t="n">
         <v>21</v>
@@ -3325,7 +3392,7 @@
         <v>24</v>
       </c>
       <c r="AO16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP16" t="n">
         <v>24</v>
@@ -3361,7 +3428,7 @@
         <v>16</v>
       </c>
       <c r="BA16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB16" t="n">
         <v>26</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>7.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3504,13 +3571,13 @@
         <v>9</v>
       </c>
       <c r="AN17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO17" t="n">
         <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
         <v>14</v>
@@ -3519,7 +3586,7 @@
         <v>28</v>
       </c>
       <c r="AS17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" t="n">
         <v>32</v>
       </c>
       <c r="G18" t="n">
-        <v>0.515</v>
+        <v>0.508</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J18" t="n">
         <v>86.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L18" t="n">
         <v>6.9</v>
@@ -3608,19 +3675,19 @@
         <v>19.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
       <c r="O18" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P18" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q18" t="n">
         <v>0.742</v>
       </c>
       <c r="R18" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S18" t="n">
         <v>31</v>
@@ -3629,7 +3696,7 @@
         <v>43.7</v>
       </c>
       <c r="U18" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V18" t="n">
         <v>14.2</v>
@@ -3644,22 +3711,22 @@
         <v>4.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA18" t="n">
         <v>19.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>15</v>
@@ -3677,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
         <v>17</v>
@@ -3686,13 +3753,13 @@
         <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ18" t="n">
         <v>20</v>
@@ -3707,7 +3774,7 @@
         <v>5</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV18" t="n">
         <v>8</v>
@@ -3725,7 +3792,7 @@
         <v>9</v>
       </c>
       <c r="BA18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB18" t="n">
         <v>11</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -3838,10 +3905,10 @@
         <v>-3.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF19" t="n">
         <v>22</v>
@@ -3859,7 +3926,7 @@
         <v>19</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL19" t="n">
         <v>28</v>
@@ -3904,13 +3971,13 @@
         <v>24</v>
       </c>
       <c r="AZ19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>2.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
@@ -4223,7 +4290,7 @@
         <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
         <v>2</v>
@@ -4232,7 +4299,7 @@
         <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO21" t="n">
         <v>19</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" t="n">
         <v>50</v>
       </c>
       <c r="F22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" t="n">
-        <v>0.735</v>
+        <v>0.746</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,25 +4391,25 @@
         <v>38.3</v>
       </c>
       <c r="J22" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="K22" t="n">
-        <v>0.483</v>
+        <v>0.484</v>
       </c>
       <c r="L22" t="n">
         <v>7.5</v>
       </c>
       <c r="M22" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.383</v>
+        <v>0.387</v>
       </c>
       <c r="O22" t="n">
         <v>22.7</v>
       </c>
       <c r="P22" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="Q22" t="n">
         <v>0.829</v>
@@ -4354,7 +4421,7 @@
         <v>33</v>
       </c>
       <c r="T22" t="n">
-        <v>43.4</v>
+        <v>43.3</v>
       </c>
       <c r="U22" t="n">
         <v>21.8</v>
@@ -4372,7 +4439,7 @@
         <v>4</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA22" t="n">
         <v>21.1</v>
@@ -4381,10 +4448,10 @@
         <v>106.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4396,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -4408,13 +4475,13 @@
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4429,7 +4496,7 @@
         <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
         <v>8</v>
@@ -4453,7 +4520,7 @@
         <v>18</v>
       </c>
       <c r="BA22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -4488,46 +4555,46 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" t="n">
         <v>18</v>
       </c>
       <c r="F23" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" t="n">
-        <v>0.265</v>
+        <v>0.269</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.7</v>
+        <v>37.9</v>
       </c>
       <c r="J23" t="n">
         <v>83.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.451</v>
+        <v>0.453</v>
       </c>
       <c r="L23" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.33</v>
+        <v>0.331</v>
       </c>
       <c r="O23" t="n">
         <v>12.4</v>
       </c>
       <c r="P23" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.769</v>
+        <v>0.771</v>
       </c>
       <c r="R23" t="n">
         <v>10.5</v>
@@ -4539,7 +4606,7 @@
         <v>42.2</v>
       </c>
       <c r="U23" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="V23" t="n">
         <v>14.6</v>
@@ -4557,16 +4624,16 @@
         <v>19.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.3</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.6</v>
+        <v>-6.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4578,13 +4645,13 @@
         <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
         <v>9</v>
       </c>
       <c r="AJ23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK23" t="n">
         <v>12</v>
@@ -4605,7 +4672,7 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR23" t="n">
         <v>24</v>
@@ -4617,19 +4684,19 @@
         <v>15</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
       </c>
       <c r="AX23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AY23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ23" t="n">
         <v>11</v>
@@ -4638,7 +4705,7 @@
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4766,7 +4833,7 @@
         <v>13</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK24" t="n">
         <v>20</v>
@@ -4778,7 +4845,7 @@
         <v>24</v>
       </c>
       <c r="AN24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>-5.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF25" t="n">
         <v>25</v>
@@ -4942,7 +5009,7 @@
         <v>25</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" t="n">
         <v>31</v>
       </c>
       <c r="F26" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" t="n">
-        <v>0.463</v>
+        <v>0.47</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
@@ -5058,19 +5125,19 @@
         <v>0.449</v>
       </c>
       <c r="L26" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O26" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P26" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q26" t="n">
         <v>0.781</v>
@@ -5079,7 +5146,7 @@
         <v>11.1</v>
       </c>
       <c r="S26" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T26" t="n">
         <v>41.6</v>
@@ -5097,34 +5164,34 @@
         <v>4.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB26" t="n">
         <v>98.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
       </c>
       <c r="AF26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG26" t="n">
         <v>19</v>
       </c>
       <c r="AH26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI26" t="n">
         <v>17</v>
@@ -5136,7 +5203,7 @@
         <v>14</v>
       </c>
       <c r="AL26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM26" t="n">
         <v>4</v>
@@ -5145,7 +5212,7 @@
         <v>22</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="n">
         <v>22</v>
@@ -5163,22 +5230,22 @@
         <v>18</v>
       </c>
       <c r="AU26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW26" t="n">
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ26" t="n">
         <v>6</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>5</v>
       </c>
       <c r="BA26" t="n">
         <v>23</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" t="n">
         <v>44</v>
       </c>
       <c r="G27" t="n">
-        <v>0.353</v>
+        <v>0.343</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5234,31 +5301,31 @@
         <v>37.3</v>
       </c>
       <c r="J27" t="n">
-        <v>83.7</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K27" t="n">
         <v>0.445</v>
       </c>
       <c r="L27" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M27" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="N27" t="n">
-        <v>0.369</v>
+        <v>0.366</v>
       </c>
       <c r="O27" t="n">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
       <c r="P27" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R27" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S27" t="n">
         <v>28.9</v>
@@ -5267,10 +5334,10 @@
         <v>40.4</v>
       </c>
       <c r="U27" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V27" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W27" t="n">
         <v>8.4</v>
@@ -5282,19 +5349,19 @@
         <v>6.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.1</v>
+        <v>-5.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
@@ -5303,7 +5370,7 @@
         <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
         <v>12</v>
@@ -5312,28 +5379,28 @@
         <v>12</v>
       </c>
       <c r="AJ27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL27" t="n">
         <v>13</v>
       </c>
       <c r="AM27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO27" t="n">
         <v>8</v>
       </c>
       <c r="AP27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR27" t="n">
         <v>13</v>
@@ -5354,13 +5421,13 @@
         <v>7</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AY27" t="n">
         <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA27" t="n">
         <v>14</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5488,7 +5555,7 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
@@ -5500,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM28" t="n">
         <v>6</v>
@@ -5512,7 +5579,7 @@
         <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5521,7 +5588,7 @@
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT28" t="n">
         <v>22</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -5709,7 +5776,7 @@
         <v>27</v>
       </c>
       <c r="AU29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
@@ -5718,7 +5785,7 @@
         <v>18</v>
       </c>
       <c r="AX29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY29" t="n">
         <v>14</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
@@ -5852,7 +5919,7 @@
         <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI30" t="n">
         <v>18</v>
@@ -5870,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
@@ -6022,16 +6089,16 @@
         <v>-2.6</v>
       </c>
       <c r="AD31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE31" t="n">
         <v>22</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>23</v>
       </c>
       <c r="AF31" t="n">
         <v>23</v>
       </c>
       <c r="AG31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH31" t="n">
         <v>6</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-19-2012-13</t>
+          <t>2013-03-19</t>
         </is>
       </c>
     </row>
